--- a/Question_Sets/Software skills/Google Docs.xlsx
+++ b/Question_Sets/Software skills/Google Docs.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'In the document shown below, you set the text “6.2. Passenger Experience” as Heading 1 but changed the color and font. You prefer this format and want to set all of the previous Heading 1 headings from 1.0. to 6.1. to the same. Which of the following methods can you use to automate this process?', 'ques_type': 2, 'options': ['Select “6.2. Passenger Experience,” then click Format. Choose Paragraph styles &amp;gt Heading 1, then click Update ‘Heading 1’ to match.', 'Select “6.2. Passenger Experience” then apply Heading 1 in Paragraph styles.', 'Select all Heading 1 headings simultaneously and change the color and font to be the same.', 'Select all Heading 1 headings simultaneously and select Use default styles in Options in Paragraph styles.'], 'score': 'Select “6.2. Passenger Experience,” then click Format. Choose Paragraph styles &amp;gt Heading 1, then click Update ‘Heading 1’ to match.'}, {'title': 'A small image of an oak leaf needs to appear in the header of all pages in your 96-page document. It needs to be placed 1 inch away from the left-hand side of the page and half an inch from the top of the page.  After inserting the image in the header, which of the following options can be used to apply your oak leaf to all pages at once and in the correct position?', 'ques_type': 2, 'options': ['Click Image options &amp;gt Text wrapping &amp;gt Move with text. Set coordinates to X = 1 and Y = 0.5.', 'Select the image, then click Image options &amp;gt Text wrapping &amp;gt Behind text &amp;gt Position &amp;gt Fix position on page. Set coordinates to X = 0.5 and Y = 1.', 'Select the image, then click Image options &amp;gt Text wrapping &amp;gt Behind text &amp;gt Position &amp;gt Fix position on page. Set coordinates to X = 1 and Y = 0.5.', 'Insert the image in the header, then click Options &amp;gt Header format. Set the header margin to 1 inch and click Apply.'], 'score': 'Select the image, then click Image options &amp;gt Text wrapping &amp;gt Behind text &amp;gt Position &amp;gt Fix position on page. Set coordinates to X = 1 and Y = 0.5.'}, {'title': 'While error-checking a large human resources document, how can you avoid staff member names being repeatedly flagged as spelling mistakes in documents you own?', 'ques_type': 2, 'options': ['Click on a name and select the Ignore button.', 'Right-click on a name and select Suggest edits from the pop-up menu.', 'Click on a name, select the More options button, and select the Always correct to button.', 'Click on a name, select the More options button, then select Add “name” to dictionary.'], 'score': 'Click on a name, select the More options button, then select Add “name” to dictionary.'}, {'title': 'Each week, you update the school lunch menu in a Google Doc so staff can see it. Your website administrator wants to embed the document on the school’s website so parents can also see the menu, which will reflect your weekly updates automatically without the need to resend every week. You have selected Publish to the web.  Which settings will ensure the document is in the right format for the website?', 'ques_type': 2, 'options': ['Select Link and click Publish. Ensure both “Restrict access to the following” and “Automatically republish when changes are made” are selected.', 'Select Embed and click Publish. Ensure both “Restrict access to the following” and “Automatically republish when changes are made” are selected.', 'Select Embed and click Publish. Ensure “Restrict access to the following” is unselected and “Automatically republish when changes are made” is selected.', 'Select Link and click Publish. Ensure “Restrict access to the following” is unselected and “Automatically republish when changes are made” is selected.'], 'score': 'Select Embed and click Publish. Ensure “Restrict access to the following” is unselected and “Automatically republish when changes are made” is selected.'}]</t>
+    <t>questions = [
+    {
+        "title": "In the document shown below, you set the text \u201c6.2. Passenger Experience\u201d as Heading 1 but changed the color and font. You prefer this format and want to set all of the previous Heading 1 headings from 1.0. to 6.1. to the same. Which of the following methods can you use to automate this process?",
+        "ques_type": 2,
+        "options": [
+            "Select \u201c6.2. Passenger Experience,\u201d then click Format. Choose Paragraph styles &amp;gt Heading 1, then click Update \u2018Heading 1\u2019 to match.",
+            "Select \u201c6.2. Passenger Experience\u201d then apply Heading 1 in Paragraph styles.",
+            "Select all Heading 1 headings simultaneously and change the color and font to be the same.",
+            "Select all Heading 1 headings simultaneously and select Use default styles in Options in Paragraph styles."
+        ],
+        "score": "Select \u201c6.2. Passenger Experience,\u201d then click Format. Choose Paragraph styles &amp;gt Heading 1, then click Update \u2018Heading 1\u2019 to match."
+    },
+    {
+        "title": "A small image of an oak leaf needs to appear in the header of all pages in your 96-page document. It needs to be placed 1 inch away from the left-hand side of the page and half an inch from the top of the page.  After inserting the image in the header, which of the following options can be used to apply your oak leaf to all pages at once and in the correct position?",
+        "ques_type": 2,
+        "options": [
+            "Click Image options &amp;gt Text wrapping &amp;gt Move with text. Set coordinates to X = 1 and Y = 0.5.",
+            "Select the image, then click Image options &amp;gt Text wrapping &amp;gt Behind text &amp;gt Position &amp;gt Fix position on page. Set coordinates to X = 0.5 and Y = 1.",
+            "Select the image, then click Image options &amp;gt Text wrapping &amp;gt Behind text &amp;gt Position &amp;gt Fix position on page. Set coordinates to X = 1 and Y = 0.5.",
+            "Insert the image in the header, then click Options &amp;gt Header format. Set the header margin to 1 inch and click Apply."
+        ],
+        "score": "Select the image, then click Image options &amp;gt Text wrapping &amp;gt Behind text &amp;gt Position &amp;gt Fix position on page. Set coordinates to X = 1 and Y = 0.5."
+    },
+    {
+        "title": "While error-checking a large human resources document, how can you avoid staff member names being repeatedly flagged as spelling mistakes in documents you own?",
+        "ques_type": 2,
+        "options": [
+            "Click on a name and select the Ignore button.",
+            "Right-click on a name and select Suggest edits from the pop-up menu.",
+            "Click on a name, select the More options button, and select the Always correct to button.",
+            "Click on a name, select the More options button, then select Add \u201cname\u201d to dictionary."
+        ],
+        "score": "Click on a name, select the More options button, then select Add \u201cname\u201d to dictionary."
+    },
+    {
+        "title": "Each week, you update the school lunch menu in a Google Doc so staff can see it. Your website administrator wants to embed the document on the school\u2019s website so parents can also see the menu, which will reflect your weekly updates automatically without the need to resend every week. You have selected Publish to the web.  Which settings will ensure the document is in the right format for the website?",
+        "ques_type": 2,
+        "options": [
+            "Select Link and click Publish. Ensure both \u201cRestrict access to the following\u201d and \u201cAutomatically republish when changes are made\u201d are selected.",
+            "Select Embed and click Publish. Ensure both \u201cRestrict access to the following\u201d and \u201cAutomatically republish when changes are made\u201d are selected.",
+            "Select Embed and click Publish. Ensure \u201cRestrict access to the following\u201d is unselected and \u201cAutomatically republish when changes are made\u201d is selected.",
+            "Select Link and click Publish. Ensure \u201cRestrict access to the following\u201d is unselected and \u201cAutomatically republish when changes are made\u201d is selected."
+        ],
+        "score": "Select Embed and click Publish. Ensure \u201cRestrict access to the following\u201d is unselected and \u201cAutomatically republish when changes are made\u201d is selected."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
